--- a/Морозова.xlsx
+++ b/Морозова.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="Workbook________"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="555" windowWidth="24240" windowHeight="13740" tabRatio="682" firstSheet="2" activeTab="3"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="Result">Sheet1!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
   <si>
     <t>passed</t>
   </si>
@@ -765,21 +765,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -794,6 +779,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,7 +1132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1407,43 +1407,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="34"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="33"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="33"/>
+      <c r="R6" s="40"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="33"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1453,29 +1453,29 @@
     </row>
     <row r="7" spans="1:26" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="35"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="33"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="33"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="33"/>
+      <c r="R7" s="40"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="33"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2958,12 +2958,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -2971,6 +2965,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T39 P8:P39 R8:R39 L8:L39 N8:N39">
@@ -3206,43 +3206,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="34"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="33"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="33"/>
+      <c r="R6" s="40"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="33"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -3252,29 +3252,29 @@
     </row>
     <row r="7" spans="1:26" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="29" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="35"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="33"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="33"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="33"/>
+      <c r="R7" s="40"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="33"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -4793,12 +4793,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -4806,6 +4800,12 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T40 P8:P40 R8:R40 L8:L40 N8:N40">
@@ -4822,7 +4822,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
@@ -4914,7 +4914,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$41,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -4957,7 +4957,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>44321</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -5041,43 +5043,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="34"/>
+      <c r="J6" s="41"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="33"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="33"/>
+      <c r="R6" s="40"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="33"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -5087,29 +5089,29 @@
     </row>
     <row r="7" spans="1:26" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="32" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="35"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="33"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="33"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="33"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="33"/>
+      <c r="R7" s="40"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="33"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -5139,7 +5141,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -5175,7 +5179,9 @@
       <c r="I9" s="21"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -5211,7 +5217,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -5247,7 +5255,9 @@
       <c r="I11" s="28"/>
       <c r="J11" s="20"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -5283,7 +5293,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -5319,7 +5331,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -5355,7 +5369,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -5391,7 +5407,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -5427,7 +5445,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -5463,7 +5483,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -6658,6 +6680,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -6665,12 +6693,6 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T41 P8:P41 R8:R41 L8:L41 N8:N41">
